--- a/Documents/DIYANA/DIGESTION/SPL DIGEST/120924 PIL/2024080256.xlsx
+++ b/Documents/DIYANA/DIGESTION/SPL DIGEST/120924 PIL/2024080256.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Documents\DIYANA\DIGESTION\SPL DIGEST\130924 POW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Documents\DIYANA\DIGESTION\SPL DIGEST\120924 PIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709CD966-FC4E-4041-9B28-5B8D31B06F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26B9AB1-BC81-4318-9B83-CA649BFD09CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TITAN" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <r>
       <rPr>
@@ -371,6 +371,27 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> g</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">                           HNO3                 H2O2                 HCl</t>
   </si>
   <si>
@@ -383,10 +404,22 @@
     <t>Content of elements spiked in IQC sample (µg/g) [content of elements spiked ÷ sample weight]</t>
   </si>
   <si>
+    <t xml:space="preserve">                      IQC POW 040424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NURAIN    NORDIYANA </t>
+  </si>
+  <si>
+    <t>SERBUK</t>
+  </si>
+  <si>
     <t>NO SAMPEL</t>
   </si>
   <si>
     <t>BERAT BERSIH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       GH 1 / GH 2        </t>
   </si>
   <si>
     <r>
@@ -396,7 +429,96 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>□ KAEDAH F:</t>
+      <t xml:space="preserve">REAGENT BLANK (RB) ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">RB POW 040424 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                                       </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Mix Std ID: TRAD </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> 040424</t>
+    </r>
+  </si>
+  <si>
+    <t>RB POW</t>
+  </si>
+  <si>
+    <t>IQC POW BLK</t>
+  </si>
+  <si>
+    <t>IQC POW A</t>
+  </si>
+  <si>
+    <t>IQC POW B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       HNO3               H2O2                 HCl</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Microwave </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     T1  /  T4    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>☑</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> KAEDAH F:</t>
     </r>
     <r>
       <rPr>
@@ -408,19 +530,46 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">       GH 1 / GH 2        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       HNO3               H2O2                 HCl</t>
-  </si>
-  <si>
-    <t>IQC LIQ D 1 220424</t>
-  </si>
-  <si>
-    <t>LIQUID</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>PIL PASTE</t>
+  </si>
+  <si>
+    <t>BERAT SAMPEL</t>
+  </si>
+  <si>
+    <t>RB GH A 280524</t>
+  </si>
+  <si>
+    <t>RB GH B 280524</t>
+  </si>
+  <si>
+    <t>IQC LIQ BLK 280524</t>
+  </si>
+  <si>
+    <t>IQC LIQ A 280524</t>
+  </si>
+  <si>
+    <t>IQC LIQ B 280524</t>
+  </si>
+  <si>
+    <t>IQC PIL BLK 280524</t>
+  </si>
+  <si>
+    <t>IQC PIL A 280524</t>
+  </si>
+  <si>
+    <t>IQC PIL B 280524</t>
+  </si>
+  <si>
+    <t>IQC SCAP BLK 280524</t>
+  </si>
+  <si>
+    <t>IQC SCAP A 280524</t>
+  </si>
+  <si>
+    <t>IQCSCAP B 280524</t>
+  </si>
+  <si>
+    <t>NORDIYANA</t>
   </si>
   <si>
     <r>
@@ -447,7 +596,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">RB GH (2) A &amp; B 220424      </t>
+      <t xml:space="preserve">RB GH A &amp; B 120924      </t>
     </r>
     <r>
       <rPr>
@@ -485,109 +634,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">                      IQC LIQ (2) 220424</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Mix Std ID: TRAD    </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>220424</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  NURAIN     NORDIYANA</t>
-  </si>
-  <si>
-    <t>RB POW 210524</t>
-  </si>
-  <si>
-    <t>IQC POW BLK 210524</t>
-  </si>
-  <si>
-    <t>IQC POW A 210524</t>
-  </si>
-  <si>
-    <t>IQC POW B 210524</t>
-  </si>
-  <si>
-    <t>UNIT ANALISIS TRADISIONAL
-BORANG PERLULUHAN SAMPEL PRODUK TRADISIONAL (I)</t>
-  </si>
-  <si>
-    <t>TANDATANGAN PENYEMAK &amp; TARIKH:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>☑</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> KAEDAH C:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Program “TRAD Powder”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">REAGENT BLANK (RB) ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">RB POW 130924 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">                                       </t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> Mix Std ID: TRAD </t>
     </r>
@@ -599,56 +645,14 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t> 130924</t>
+      <t xml:space="preserve">   130924  </t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Microwave </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">___  T4       _ </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> NORDIYANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      IQC POW 130924</t>
-  </si>
-  <si>
-    <t>13/09/2024</t>
-  </si>
-  <si>
-    <t>KAPSUL KERAS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">          50.034                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> g</t>
-    </r>
+    <t xml:space="preserve">                      IQC PIL 120924</t>
+  </si>
+  <si>
+    <t>IQBAL        12/09/2024</t>
   </si>
 </sst>
 </file>
@@ -662,7 +666,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="[$-14409]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -774,6 +778,16 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1215,7 +1229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1318,15 +1332,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1372,7 +1398,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1489,9 +1515,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1531,7 +1554,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1550,108 +1573,126 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1738,7 +1779,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1766,15 +1807,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>647699</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>885824</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1789,8 +1830,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638800" y="4752975"/>
-          <a:ext cx="161926" cy="180975"/>
+          <a:off x="6162674" y="4743450"/>
+          <a:ext cx="238125" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2190,8 +2231,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019321" y="923328"/>
-              <a:chExt cx="2078187" cy="229184"/>
+              <a:chOff x="5019300" y="923328"/>
+              <a:chExt cx="2078183" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -2210,8 +2251,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5939524" y="927230"/>
-                <a:ext cx="304806" cy="215576"/>
+                <a:off x="5939527" y="927230"/>
+                <a:ext cx="304805" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -2257,8 +2298,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019321" y="923328"/>
-                <a:ext cx="304608" cy="229184"/>
+                <a:off x="5019300" y="923328"/>
+                <a:ext cx="304606" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -2304,7 +2345,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792706" y="927231"/>
+                <a:off x="6792681" y="927231"/>
                 <a:ext cx="304802" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2997,15 +3038,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3020,8 +3061,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6172200" y="4733925"/>
-          <a:ext cx="238125" cy="228600"/>
+          <a:off x="6210300" y="4772025"/>
+          <a:ext cx="238125" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3077,14 +3118,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
@@ -3101,7 +3142,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3419475" y="5953126"/>
+          <a:off x="2971800" y="5953126"/>
           <a:ext cx="390525" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3159,15 +3200,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:rowOff>257175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>514350</xdr:rowOff>
+      <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3182,7 +3223,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5924550" y="7924800"/>
+          <a:off x="5838825" y="7905750"/>
           <a:ext cx="190500" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3214,70 +3255,6 @@
           <a:r>
             <a:rPr lang="en-MY" sz="1100"/>
             <a:t>g</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>266699</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>561974</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4648200" y="7915274"/>
-          <a:ext cx="895350" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100"/>
-            <a:t>___________</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3576,8 +3553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3592,58 +3569,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107"/>
+      <c r="A1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="110"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111">
-        <v>2024080298</v>
-      </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104"/>
+      <c r="A4" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="106"/>
+      <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -3654,190 +3629,187 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="122" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="123"/>
+      <c r="G5" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="126"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="119"/>
+      <c r="H6" s="122"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="30">
         <v>0.501</v>
       </c>
-      <c r="G7" s="120">
-        <v>50.226999999999997</v>
-      </c>
-      <c r="H7" s="121">
-        <v>50.115000000000002</v>
-      </c>
+      <c r="G7" s="123">
+        <f>61.95-11.812</f>
+        <v>50.138000000000005</v>
+      </c>
+      <c r="H7" s="124"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="30">
-        <v>0.504</v>
-      </c>
-      <c r="G8" s="120">
-        <v>50.040999999999997</v>
-      </c>
-      <c r="H8" s="121">
-        <v>50.052999999999997</v>
-      </c>
+        <v>0.502</v>
+      </c>
+      <c r="G8" s="123">
+        <f>61.903-11.782</f>
+        <v>50.120999999999995</v>
+      </c>
+      <c r="H8" s="124"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="30">
-        <v>0.505</v>
-      </c>
-      <c r="G9" s="120">
-        <v>50.061999999999998</v>
-      </c>
-      <c r="H9" s="121">
-        <v>50.115000000000002</v>
-      </c>
+        <v>0.502</v>
+      </c>
+      <c r="G9" s="123">
+        <f>61.97-11.786</f>
+        <v>50.183999999999997</v>
+      </c>
+      <c r="H9" s="124"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="119"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="63">
         <v>2.5</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="6">
         <f>B12/F8</f>
-        <v>4.9603174603174605</v>
-      </c>
-      <c r="G12" s="124">
+        <v>4.9800796812749004</v>
+      </c>
+      <c r="G12" s="127">
         <f>B12/F9</f>
-        <v>4.9504950495049505</v>
-      </c>
-      <c r="H12" s="125"/>
+        <v>4.9800796812749004</v>
+      </c>
+      <c r="H12" s="128"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="47">
         <v>0.25</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="6">
         <f>B13/F8</f>
-        <v>0.49603174603174605</v>
-      </c>
-      <c r="G13" s="124">
+        <v>0.49800796812749004</v>
+      </c>
+      <c r="G13" s="127">
         <f>B13/F9</f>
-        <v>0.49504950495049505</v>
-      </c>
-      <c r="H13" s="125"/>
+        <v>0.49800796812749004</v>
+      </c>
+      <c r="H13" s="128"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="66">
         <v>5</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="6">
         <f>B14/F8</f>
-        <v>9.9206349206349209</v>
-      </c>
-      <c r="G14" s="124">
+        <v>9.9601593625498008</v>
+      </c>
+      <c r="G14" s="127">
         <f>B14/F9</f>
-        <v>9.9009900990099009</v>
-      </c>
-      <c r="H14" s="125"/>
+        <v>9.9601593625498008</v>
+      </c>
+      <c r="H14" s="128"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="47">
         <v>0.15</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="6">
         <f>B15/F8</f>
-        <v>0.29761904761904762</v>
-      </c>
-      <c r="G15" s="124">
+        <v>0.29880478087649404</v>
+      </c>
+      <c r="G15" s="127">
         <f>B15/F9</f>
-        <v>0.29702970297029702</v>
-      </c>
-      <c r="H15" s="125"/>
+        <v>0.29880478087649404</v>
+      </c>
+      <c r="H15" s="128"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -3846,16 +3818,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="54" t="s">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="55"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="21" t="s">
         <v>34</v>
       </c>
@@ -3864,70 +3836,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="37" t="s">
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="37"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="23"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="37"/>
+      <c r="A19" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="41"/>
       <c r="G19" s="23"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="37" t="s">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="37"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="23"/>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="23"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="38" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="39"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
     </row>
@@ -3969,68 +3941,68 @@
       <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="40" t="s">
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="40"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="94"/>
+      <c r="H26" s="97"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="102" t="s">
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="102"/>
+      <c r="E27" s="105"/>
       <c r="F27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="93"/>
+      <c r="G27" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="96"/>
     </row>
     <row r="28" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="85"/>
-      <c r="H28" s="86"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="89"/>
+      <c r="H28" s="90"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="101"/>
+      <c r="A29" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="103">
+        <v>45386</v>
+      </c>
+      <c r="E29" s="104"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -4264,8 +4236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:G27"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4281,62 +4253,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="107"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110"/>
     </row>
     <row r="2" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="145" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="151">
+        <v>2024080256</v>
+      </c>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="147"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="154" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="156"/>
     </row>
     <row r="4" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
+      <c r="A4" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -4346,188 +4318,196 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="122" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="123"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="126"/>
     </row>
     <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="138" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="138" t="s">
+      <c r="G6" s="150"/>
+      <c r="H6" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="139"/>
+      <c r="I6" s="146"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="134">
-        <v>1.5069999999999999</v>
-      </c>
-      <c r="G7" s="134"/>
-      <c r="H7" s="135">
-        <v>100.289</v>
-      </c>
-      <c r="I7" s="135"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="144">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="G7" s="144"/>
+      <c r="H7" s="141">
+        <v>100.125</v>
+      </c>
+      <c r="I7" s="141"/>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="132" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="135"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="144">
+        <v>1.506</v>
+      </c>
+      <c r="G8" s="144"/>
+      <c r="H8" s="141">
+        <v>100.02500000000001</v>
+      </c>
+      <c r="I8" s="141"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="134" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="135"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="144">
+        <v>1.506</v>
+      </c>
+      <c r="G9" s="144"/>
+      <c r="H9" s="141">
+        <v>100.06100000000001</v>
+      </c>
+      <c r="I9" s="141"/>
     </row>
     <row r="10" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
-      <c r="B10" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="131" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="138" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="49" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="129" t="s">
+      <c r="G11" s="55"/>
+      <c r="H11" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="130"/>
+      <c r="I11" s="137"/>
     </row>
     <row r="12" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="63">
         <v>7.5</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="127" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="128"/>
-      <c r="H12" s="127" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="125"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="127">
+        <f>B12/F8</f>
+        <v>4.9800796812749004</v>
+      </c>
+      <c r="G12" s="135"/>
+      <c r="H12" s="127">
+        <f>B12/F9</f>
+        <v>4.9800796812749004</v>
+      </c>
+      <c r="I12" s="128"/>
     </row>
     <row r="13" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="47">
         <v>0.75</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="127" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="128"/>
-      <c r="H13" s="127" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="125"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="127">
+        <f>B13/F8</f>
+        <v>0.49800796812749004</v>
+      </c>
+      <c r="G13" s="135"/>
+      <c r="H13" s="127">
+        <f>B13/F9</f>
+        <v>0.49800796812749004</v>
+      </c>
+      <c r="I13" s="128"/>
     </row>
     <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="66">
         <v>15</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="127" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="128"/>
-      <c r="H14" s="127" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="125"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="127">
+        <f>B14/F8</f>
+        <v>9.9601593625498008</v>
+      </c>
+      <c r="G14" s="135"/>
+      <c r="H14" s="127">
+        <f>B14/F9</f>
+        <v>9.9601593625498008</v>
+      </c>
+      <c r="I14" s="128"/>
     </row>
     <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="47">
         <v>0.45</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="127" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="128"/>
-      <c r="H15" s="127" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="125"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="127">
+        <f>B15/F8</f>
+        <v>0.29880478087649404</v>
+      </c>
+      <c r="G15" s="135"/>
+      <c r="H15" s="127">
+        <f>B15/F9</f>
+        <v>0.29880478087649404</v>
+      </c>
+      <c r="I15" s="128"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -4536,17 +4516,17 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="54" t="s">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="21" t="s">
         <v>34</v>
       </c>
@@ -4555,75 +4535,75 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="37" t="s">
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="23"/>
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="37" t="s">
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="23"/>
       <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="37" t="s">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="23"/>
       <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="23"/>
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
+      <c r="A22" s="134" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="25"/>
       <c r="I22" s="26"/>
     </row>
@@ -4631,9 +4611,9 @@
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
     </row>
     <row r="24" spans="1:9" s="10" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
@@ -4644,11 +4624,11 @@
       <c r="D24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="149" t="s">
+      <c r="E24" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
       <c r="H24" s="13"/>
       <c r="I24" s="14" t="s">
         <v>29</v>
@@ -4661,81 +4641,81 @@
       <c r="D25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="150" t="s">
+      <c r="E25" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
       <c r="H25" s="18"/>
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="40" t="s">
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="151" t="s">
+      <c r="E26" s="44"/>
+      <c r="F26" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="152"/>
-      <c r="H26" s="40" t="s">
+      <c r="G26" s="161"/>
+      <c r="H26" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="94"/>
+      <c r="I26" s="97"/>
     </row>
     <row r="27" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="102" t="s">
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="153" t="s">
+      <c r="E27" s="105"/>
+      <c r="F27" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="154"/>
-      <c r="H27" s="92">
-        <v>100.125</v>
-      </c>
-      <c r="I27" s="93"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="132">
+        <v>100.07599999999999</v>
+      </c>
+      <c r="I27" s="133"/>
     </row>
     <row r="28" spans="1:9" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="84" t="s">
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="86"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="90"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="100">
-        <v>45404</v>
-      </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="99"/>
+      <c r="A29" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="129" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="130"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="69">
@@ -4982,366 +4962,495 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="32" t="s">
+      <c r="E1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="K1" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="38">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>19.353999999999999</v>
+      </c>
       <c r="D2" s="9">
-        <f>C2-B2</f>
+        <v>119.369</v>
+      </c>
+      <c r="E2" s="9">
+        <f>D2-C2</f>
+        <v>100.015</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <f>J2-I2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="29" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="38">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>19.434000000000001</v>
+      </c>
+      <c r="D3" s="9">
+        <v>119.465</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E21" si="0">D3-C3</f>
+        <v>100.03100000000001</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <f t="shared" ref="K3:K16" si="1">J3-I3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="9">
+        <v>19.495000000000001</v>
+      </c>
+      <c r="D4" s="9">
+        <v>119.527</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
+        <v>100.032</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="9">
+        <v>19.488</v>
+      </c>
+      <c r="D5" s="9">
+        <v>119.50700000000001</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>100.01900000000001</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="9">
-        <v>11.805999999999999</v>
-      </c>
-      <c r="H2" s="9">
-        <v>61.853000000000002</v>
-      </c>
-      <c r="I2" s="9">
-        <f>H2-G2</f>
-        <v>50.047000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9">
-        <f t="shared" ref="D3:D21" si="0">C3-B3</f>
+      <c r="H5" s="38"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="9">
-        <v>11.826000000000001</v>
-      </c>
-      <c r="H3" s="9">
-        <v>61.941000000000003</v>
-      </c>
-      <c r="I3" s="9">
-        <f t="shared" ref="I3:I16" si="1">H3-G3</f>
-        <v>50.115000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="9">
+        <v>19.388000000000002</v>
+      </c>
+      <c r="D6" s="9">
+        <v>119.527</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>100.139</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="29">
+        <v>2024050117</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="9">
+        <v>19.428999999999998</v>
+      </c>
+      <c r="D7" s="9">
+        <v>119.462</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>100.033</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="29">
+        <v>2024050120</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="9">
+        <v>19.375</v>
+      </c>
+      <c r="D8" s="9">
+        <v>119.431</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>100.056</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="9">
+        <v>19.442</v>
+      </c>
+      <c r="D9" s="9">
+        <v>119.452</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>100.00999999999999</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="9">
+        <v>19.442</v>
+      </c>
+      <c r="D10" s="9">
+        <v>119.48699999999999</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>100.04499999999999</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="9">
+        <v>19.491</v>
+      </c>
+      <c r="D11" s="9">
+        <v>119.52200000000001</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>100.03100000000001</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
+        <v>2024050126</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="9">
+        <v>19.452000000000002</v>
+      </c>
+      <c r="D12" s="9">
+        <v>119.48399999999999</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>100.032</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="29">
+        <v>2024050127</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="9">
+        <v>19.402000000000001</v>
+      </c>
+      <c r="D13" s="9">
+        <v>119.42400000000001</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>100.02200000000001</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="29">
+        <v>2024050128</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="9">
+        <v>19.396000000000001</v>
+      </c>
+      <c r="D14" s="9">
+        <v>119.501</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>100.105</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="9">
+        <v>19.443000000000001</v>
+      </c>
+      <c r="D15" s="9">
+        <v>119.46599999999999</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>100.023</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="9">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="D16" s="9">
+        <v>119.51900000000001</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>100.02900000000001</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="9">
+        <v>19.463000000000001</v>
+      </c>
+      <c r="D17" s="9">
+        <v>119.485</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>100.02199999999999</v>
+      </c>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="29">
+        <v>2024050131</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="9">
+        <v>19.398</v>
+      </c>
+      <c r="D18" s="9">
+        <v>119.407</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>100.009</v>
+      </c>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="9">
-        <v>11.843999999999999</v>
-      </c>
-      <c r="H4" s="9">
-        <v>61.896999999999998</v>
-      </c>
-      <c r="I4" s="9">
-        <f t="shared" si="1"/>
-        <v>50.052999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9">
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="9">
-        <v>11.766</v>
-      </c>
-      <c r="H5" s="9">
-        <v>61.881</v>
-      </c>
-      <c r="I5" s="9">
-        <f t="shared" si="1"/>
-        <v>50.115000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9">
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="29">
-        <v>2023110050</v>
-      </c>
-      <c r="G6" s="9">
-        <v>11.813000000000001</v>
-      </c>
-      <c r="H6" s="9">
-        <v>61.932000000000002</v>
-      </c>
-      <c r="I6" s="9">
-        <f t="shared" si="1"/>
-        <v>50.119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H21" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>